--- a/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-10-31_OUTPUT.xlsx
+++ b/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-10-31_OUTPUT.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\pdfcreater\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>收益率</t>
   </si>
@@ -96,29 +100,39 @@
   </si>
   <si>
     <t>2018.01.26 - 2018.10.25</t>
+  </si>
+  <si>
+    <t>HS300收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="fangsong"/>
-      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,33 +148,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,284 +471,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="2" min="2" width="12"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
-    <col customWidth="1" max="4" min="4" width="12"/>
-    <col customWidth="1" max="5" min="5" width="12"/>
-    <col customWidth="1" max="6" min="6" width="23"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>-0.1580217110618177</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
+        <v>-0.66245399999999999</v>
+      </c>
+      <c r="D2" s="2">
         <v>-0.1580217110618177</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2">
         <v>-0.1776235676505227</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>-0.8896438302192425</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3">
+        <v>-0.88964383021924254</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.7648187736198189</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="2">
+        <v>0.76481877361981887</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.89896799999999999</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.4859390912983963</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="E3" s="2">
         <v>-0.1165762620585542</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>6.560673331897225</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3">
+        <v>6.5606733318972248</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>0.1873392713837625</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0.764313837982888</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" s="2">
+        <v>-0.115118</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.76431383798288799</v>
+      </c>
+      <c r="E4" s="2">
         <v>-0.1247089760383767</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="3">
         <v>1.502211607656152</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.08984476347515247</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2">
+        <v>-8.9844763475152467E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.26458500000000001</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.6057994785133769</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>-0.1219166931114428</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>-0.7369356991419237</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="2">
+        <v>-0.12191669311144281</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.73693569914192369</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.0434043230757688</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.5361008391530813</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-0.1530290160770754</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>-0.2836345955064336</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>-4.3404323075768803E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.7531000000000007E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.53610083915308127</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.15302901607707539</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.28363459550643361</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>0.10395808394589</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0.6957909391391093</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-0.08306070285367717</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="C7" s="2">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.69579093913910928</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-8.3060702853677171E-2</v>
+      </c>
+      <c r="F7" s="3">
         <v>1.251591671804493</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0.7072612444049187</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1.895158149005221</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-0.08692968117589339</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>8.136015625938478</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>0.70726124440491867</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.52185199999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.8951581490052209</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-8.6929681175893392E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8.1360156259384784</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0.6329442709716362</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>3.727631912974923</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-0.2277122646666538</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>2.779579184714527</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>0.63294427097163619</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.4566999999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.7276319129749229</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.22771226466665381</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.7795791847145268</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>-0.07222276237543634</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>3.386189276725606</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="B10" s="2">
+        <v>-7.2222762375436345E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-4.5830999999999997E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.3861892767256059</v>
+      </c>
+      <c r="E10" s="2">
         <v>-0.1221823284596489</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>-0.5911064495655615</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3">
+        <v>-0.59110644956556146</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>0.2043480139031848</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>4.28249834402793</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>-0.04972664356135126</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>4.109427044901317</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="C11" s="2">
+        <v>0.206036</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.2824983440279301</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-4.9726643561351258E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.1094270449013166</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>-0.1144519126121207</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>3.677906305183573</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>-0.1579129995895217</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>-0.724778282406303</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="C12" s="2">
+        <v>-0.18013999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.6779063051835732</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.15791299958952171</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.72477828240630304</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B12">
-    <cfRule priority="1" type="dataBar">
-      <dataBar maxLength="60" showValue="1">
+    <cfRule type="dataBar" priority="2">
+      <dataBar maxLength="60">
         <cfvo type="percentile" val="0"/>
         <cfvo type="percentile" val="99"/>
         <color rgb="FFFF0000"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule priority="2" type="dataBar">
-      <dataBar maxLength="60" showValue="1">
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar maxLength="60">
         <cfvo type="percentile" val="90"/>
         <cfvo type="percentile" val="0"/>
-        <color rgb="FF22ae6b"/>
+        <color rgb="FF22AE6B"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="C2:C12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar maxLength="60">
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="99"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-10-31_OUTPUT.xlsx
+++ b/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-10-31_OUTPUT.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 

--- a/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-10-31_OUTPUT.xlsx
+++ b/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-10-31_OUTPUT.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
